--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1744114.165998324</v>
+        <v>1745874.696301108</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>68.11693918766132</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,10 +676,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>130.1712092340068</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>35.8833612475507</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>68.60038183882739</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>90.34114409796611</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760046</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425915</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>188.0864793410491</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074803</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>131.8687753640607</v>
       </c>
       <c r="W6" t="n">
-        <v>196.3506765115049</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>36.85894767157055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>156.2453961203797</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304057</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>297.4476353348067</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>179.507751465077</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1220,10 +1220,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>130.2280544827308</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>31.68046530976962</v>
       </c>
       <c r="D10" t="n">
-        <v>125.0721477169158</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>71.60395572454081</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>176.5196562849264</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>137.9792024346624</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671152</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>3.475606507923247</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>146.0535160667528</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>34.45703212904674</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>10.63412424767761</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="F46" t="n">
-        <v>89.67992556049168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097411</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="C2" t="n">
-        <v>293.4024563932561</v>
+        <v>224.5974673148101</v>
       </c>
       <c r="D2" t="n">
-        <v>293.4024563932561</v>
+        <v>224.5974673148101</v>
       </c>
       <c r="E2" t="n">
-        <v>293.4024563932561</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>286.4569556440526</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>273.2268210682364</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262261</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262261</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262261</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262261</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262261</v>
+        <v>482.8222414097407</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598.8192732198768</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="C3" t="n">
-        <v>562.5734537779064</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>413.6390441166551</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>254.4015891111996</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>254.4015891111996</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198768</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198768</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198768</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198768</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198768</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X3" t="n">
-        <v>598.8192732198768</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y3" t="n">
-        <v>598.8192732198768</v>
+        <v>491.3892486600804</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>624.7169779062417</v>
+        <v>1185.147817799032</v>
       </c>
       <c r="C5" t="n">
-        <v>624.7169779062417</v>
+        <v>816.1853008586202</v>
       </c>
       <c r="D5" t="n">
-        <v>624.7169779062417</v>
+        <v>457.9196022518696</v>
       </c>
       <c r="E5" t="n">
-        <v>238.9287253079975</v>
+        <v>457.9196022518696</v>
       </c>
       <c r="F5" t="n">
-        <v>231.983224558794</v>
+        <v>450.9741015026661</v>
       </c>
       <c r="G5" t="n">
-        <v>219.6075834132896</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675767</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746975</v>
+        <v>277.9807166746978</v>
       </c>
       <c r="L5" t="n">
         <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709175</v>
+        <v>823.5081935709179</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
         <v>1416.413635079239</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332758</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540652</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301</v>
+        <v>1727.902815837882</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437436</v>
+        <v>1537.916473069146</v>
       </c>
       <c r="U5" t="n">
-        <v>1350.951391437436</v>
+        <v>1537.916473069146</v>
       </c>
       <c r="V5" t="n">
-        <v>1350.951391437436</v>
+        <v>1537.916473069146</v>
       </c>
       <c r="W5" t="n">
-        <v>998.1827361673215</v>
+        <v>1185.147817799032</v>
       </c>
       <c r="X5" t="n">
-        <v>624.7169779062417</v>
+        <v>1185.147817799032</v>
       </c>
       <c r="Y5" t="n">
-        <v>624.7169779062417</v>
+        <v>1185.147817799032</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377065</v>
+        <v>663.7175082377064</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>489.2644789565794</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953282</v>
+        <v>340.3300692953281</v>
       </c>
       <c r="E6" t="n">
         <v>181.0926142898727</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675767</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675767</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675767</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675767</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787528</v>
+        <v>61.6678846478752</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806062</v>
+        <v>186.157723980606</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189977</v>
+        <v>399.8722171189974</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223499</v>
+        <v>668.6238185223493</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352478</v>
+        <v>958.8971200352469</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228317</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639507</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906548</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906549</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906549</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906549</v>
+        <v>1401.100270703772</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906549</v>
+        <v>1172.985128659328</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906549</v>
+        <v>1039.784345463307</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>1039.784345463307</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>831.9328452577745</v>
       </c>
       <c r="Y6" t="n">
         <v>831.9328452577745</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7024101734645</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="E7" t="n">
-        <v>71.78931659107135</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675767</v>
+        <v>222.9291020878892</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675767</v>
+        <v>65.10546964306126</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675767</v>
+        <v>65.10546964306126</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675767</v>
+        <v>65.10546964306126</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675767</v>
+        <v>34.55805631675765</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574685</v>
+        <v>64.24066662574675</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584114</v>
+        <v>132.1299861584112</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834797</v>
+        <v>206.9680378347967</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195365</v>
+        <v>287.884133819536</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934715</v>
+        <v>342.310156193471</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858002</v>
+        <v>369.8190495857996</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.399693788884</v>
+        <v>721.0231940540809</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>721.0231940540809</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>362.7574954473304</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561087</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.138865828817</v>
+        <v>1111.162526029893</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.999533853006</v>
+        <v>721.0231940540809</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>498.3001248569672</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>323.8470955758402</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>174.9126859145889</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1571.516725807466</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1336.364617575724</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1082.127260847522</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>874.2757606419891</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>666.5154618770352</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.6408822103593</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="C10" t="n">
-        <v>169.7046992824524</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5229,10 +5229,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828076</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
         <v>2018.514925172274</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2268.660400464173</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.058935487114</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.983708831312</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1505.299220625425</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5758,19 +5758,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,16 +5840,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>553.1252546331712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>406.2353071352608</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>239.0392078501407</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>97.32737669233879</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6016,10 +6016,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2232.388575724832</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>2012.787110747773</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1723.711884091971</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6417,19 +6417,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6864,46 +6864,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7432,10 +7432,10 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7551,22 +7551,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7788,16 +7788,16 @@
         <v>564.5188827892232</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -23469,13 +23469,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>145.8014946027475</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>4.506629716718152</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.04708356698217</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.5874149221289713</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>77.79022981064229</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>34.97276993489183</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>206.7713260796106</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="F46" t="n">
-        <v>55.74112246243956</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620399</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881711.3058620399</v>
+        <v>881711.30586204</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881711.30586204</v>
+        <v>881711.3058620398</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
@@ -26322,37 +26322,37 @@
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907538</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253119</v>
+        <v>270592.3620253117</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231932</v>
+        <v>115410.0540231948</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881963</v>
+        <v>62913.6376588196</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197494</v>
+        <v>27875.25362197517</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263463</v>
+        <v>206604.4229263464</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936816</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372676.0731081979</v>
+        <v>-372676.0731081978</v>
       </c>
       <c r="C6" t="n">
-        <v>570.6749873652298</v>
+        <v>570.6749873652443</v>
       </c>
       <c r="D6" t="n">
-        <v>179391.0686904283</v>
+        <v>179391.0686904269</v>
       </c>
       <c r="E6" t="n">
-        <v>-172915.8579036422</v>
+        <v>-172603.2165747202</v>
       </c>
       <c r="F6" t="n">
-        <v>428527.3496706226</v>
+        <v>428839.9909995438</v>
       </c>
       <c r="G6" t="n">
-        <v>428527.3496706227</v>
+        <v>428839.9909995436</v>
       </c>
       <c r="H6" t="n">
-        <v>428527.3496706229</v>
+        <v>428839.9909995438</v>
       </c>
       <c r="I6" t="n">
-        <v>428527.3496706226</v>
+        <v>428839.9909995436</v>
       </c>
       <c r="J6" t="n">
-        <v>379462.4049420779</v>
+        <v>379775.0462709991</v>
       </c>
       <c r="K6" t="n">
-        <v>365613.7120118031</v>
+        <v>365926.3533407242</v>
       </c>
       <c r="L6" t="n">
-        <v>400652.0960486476</v>
+        <v>400964.7373775687</v>
       </c>
       <c r="M6" t="n">
-        <v>271380.9691190244</v>
+        <v>271693.6104479461</v>
       </c>
       <c r="N6" t="n">
-        <v>428527.3496706224</v>
+        <v>428839.9909995437</v>
       </c>
       <c r="O6" t="n">
-        <v>428527.3496706223</v>
+        <v>428839.9909995435</v>
       </c>
       <c r="P6" t="n">
-        <v>428527.3496706223</v>
+        <v>428839.9909995436</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950613</v>
+        <v>758.899629295061</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594709</v>
+        <v>431.9757039594706</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821565</v>
+        <v>210.4296883821564</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262278</v>
+        <v>94.81103524262414</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931508</v>
+        <v>244.4501167931507</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.1392527666937</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931508</v>
+        <v>244.4501167931507</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666924</v>
+        <v>110.1392527666933</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931508</v>
+        <v>244.4501167931507</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.1392527666937</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971605</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>297.1559525833462</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>186.7226168722155</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>136.825137740765</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>137.082313938477</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377771</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>217.8891119735074</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.8578877276005</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425924</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>21.65426217387974</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27715,7 +27715,7 @@
         <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937516</v>
+        <v>43.32085084937519</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074799</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27751,19 +27751,19 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>100.9318117853646</v>
       </c>
       <c r="W6" t="n">
-        <v>55.34430664941473</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>108.5621003513607</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>10.37707570984207</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27797,7 +27797,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304052</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589159</v>
+        <v>36.91115760589163</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166224</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>84.48273473745508</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>190.223349213392</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>27.41702597267016</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250797</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>135.5663557888582</v>
       </c>
       <c r="D10" t="n">
-        <v>23.54332530129659</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-3.287668775498232e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.05085278108567</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429364</v>
+        <v>31.24454604429363</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428054</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.9373162286701</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520268</v>
+        <v>388.0799144520266</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511775</v>
+        <v>481.4474502511773</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968098</v>
+        <v>535.7030533968095</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610695</v>
+        <v>544.3712888610693</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191489</v>
+        <v>514.0343715191486</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860962</v>
+        <v>438.7164434860961</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.4577782634654</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098729</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898981</v>
+        <v>69.52130774898977</v>
       </c>
       <c r="T5" t="n">
         <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868537</v>
+        <v>0.2440682224868536</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030886</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403514</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062484</v>
+        <v>56.20152915062481</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475935</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316628</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721888</v>
+        <v>354.4276051721887</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658084</v>
+        <v>413.6002979658082</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468665</v>
+        <v>424.5470671468663</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374452</v>
+        <v>388.377624437445</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872489</v>
+        <v>311.7072835872488</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.3680642547496</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947718</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378879</v>
+        <v>6.579516597378876</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236995</v>
       </c>
       <c r="H7" t="n">
         <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673453</v>
+        <v>41.15475366734528</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635559</v>
+        <v>96.75348224635555</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260799</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162529</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.5197755399137</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528487</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275346</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650514998</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235542</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054708</v>
+        <v>61.53307486054705</v>
       </c>
       <c r="S7" t="n">
-        <v>23.849353923912</v>
+        <v>23.84935392391199</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830799</v>
+        <v>5.847259438830796</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656349</v>
+        <v>0.07464586517656345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>608.2694430035901</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198394</v>
+        <v>77.89141170198383</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070463</v>
+        <v>167.9900634070461</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811902</v>
+        <v>245.6810352811901</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695371</v>
+        <v>305.3568201695368</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644786</v>
+        <v>314.9582252644784</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974621</v>
+        <v>283.9361600974619</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308267</v>
+        <v>207.4834477308265</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890159</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092688</v>
+        <v>27.38366498092682</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573038</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.8732253923145</v>
       </c>
       <c r="M6" t="n">
-        <v>271.46626404379</v>
+        <v>271.4662640437899</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635331</v>
+        <v>293.2053550635329</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930008</v>
+        <v>245.7813799930006</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.7328761729185</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872818</v>
+        <v>68.3862901687281</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554464</v>
+        <v>29.98243465554455</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501472</v>
+        <v>68.57507023501464</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923087</v>
+        <v>75.59399159230861</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761559</v>
+        <v>81.73343028761548</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569191</v>
+        <v>54.97578017569182</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235225</v>
+        <v>27.78676100235216</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
